--- a/GPCRs_ligand/5-Hydroxytryptamine_receptors.xlsx
+++ b/GPCRs_ligand/5-Hydroxytryptamine_receptors.xlsx
@@ -10,7 +10,19 @@
     <sheet name="agonists" sheetId="1" r:id="rId1"/>
     <sheet name="antagonists" sheetId="2" r:id="rId2"/>
     <sheet name="allosterics" sheetId="3" r:id="rId3"/>
-    <sheet name="reference" sheetId="4" r:id="rId4"/>
+    <sheet name="5-HT1A receptor_reference" sheetId="4" r:id="rId4"/>
+    <sheet name="5-HT1B receptor_reference" sheetId="5" r:id="rId5"/>
+    <sheet name="5-HT1D receptor_reference" sheetId="6" r:id="rId6"/>
+    <sheet name="5-ht1e receptor_reference" sheetId="7" r:id="rId7"/>
+    <sheet name="5-HT1F receptor_reference" sheetId="8" r:id="rId8"/>
+    <sheet name="5-HT2A receptor_reference" sheetId="9" r:id="rId9"/>
+    <sheet name="5-HT2B receptor_reference" sheetId="10" r:id="rId10"/>
+    <sheet name="5-HT2C receptor_reference" sheetId="11" r:id="rId11"/>
+    <sheet name="5-HT4 receptor_reference" sheetId="12" r:id="rId12"/>
+    <sheet name="5-HT5A receptor_reference" sheetId="13" r:id="rId13"/>
+    <sheet name="5-ht5b receptor_reference" sheetId="14" r:id="rId14"/>
+    <sheet name="5-HT6 receptor_reference" sheetId="15" r:id="rId15"/>
+    <sheet name="5-HT7 receptor_reference" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -8627,6 +8639,4374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C41" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C47" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C49" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>588</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>596</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C69" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1640</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C71" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C72" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C73" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C78" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B19" t="s">
+        <v>639</v>
+      </c>
+      <c r="C19" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C80" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B57" r:id="rId55"/>
+    <hyperlink ref="B58" r:id="rId56"/>
+    <hyperlink ref="B59" r:id="rId57"/>
+    <hyperlink ref="B60" r:id="rId58"/>
+    <hyperlink ref="B61" r:id="rId59"/>
+    <hyperlink ref="B62" r:id="rId60"/>
+    <hyperlink ref="B63" r:id="rId61"/>
+    <hyperlink ref="B64" r:id="rId62"/>
+    <hyperlink ref="B65" r:id="rId63"/>
+    <hyperlink ref="B66" r:id="rId64"/>
+    <hyperlink ref="B67" r:id="rId65"/>
+    <hyperlink ref="B68" r:id="rId66"/>
+    <hyperlink ref="B69" r:id="rId67"/>
+    <hyperlink ref="B70" r:id="rId68"/>
+    <hyperlink ref="B71" r:id="rId69"/>
+    <hyperlink ref="B72" r:id="rId70"/>
+    <hyperlink ref="B73" r:id="rId71"/>
+    <hyperlink ref="B74" r:id="rId72"/>
+    <hyperlink ref="B75" r:id="rId73"/>
+    <hyperlink ref="B76" r:id="rId74"/>
+    <hyperlink ref="B77" r:id="rId75"/>
+    <hyperlink ref="B78" r:id="rId76"/>
+    <hyperlink ref="B79" r:id="rId77"/>
+    <hyperlink ref="B80" r:id="rId78"/>
+    <hyperlink ref="B81" r:id="rId79"/>
+    <hyperlink ref="B82" r:id="rId80"/>
+    <hyperlink ref="B83" r:id="rId81"/>
+    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B85" r:id="rId83"/>
+    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B87" r:id="rId85"/>
+    <hyperlink ref="B88" r:id="rId86"/>
+    <hyperlink ref="B89" r:id="rId87"/>
+    <hyperlink ref="B90" r:id="rId88"/>
+    <hyperlink ref="B91" r:id="rId89"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C34" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C42" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2321</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2322</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2328</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2331</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2336</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2339</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>2340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2342</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2343</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2346</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C51" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>2348</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2351</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C56" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2352</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>2354</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2355</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>2356</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2357</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H110"/>
@@ -10284,1036 +14664,1036 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2259</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2318</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>2358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>160</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2260</v>
+        <v>161</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2319</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>2359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>162</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>2261</v>
+        <v>163</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2320</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>2360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>534</v>
+        <v>164</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>621</v>
+        <v>264</v>
       </c>
       <c r="C7" t="s">
-        <v>684</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>2262</v>
+        <v>165</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2321</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>2361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>2263</v>
+        <v>166</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2322</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>2362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>2264</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2323</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
-        <v>2363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>2265</v>
+        <v>168</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>2324</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>2364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>2266</v>
+        <v>169</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>2325</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
-        <v>2365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>2267</v>
+        <v>170</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1440</v>
+        <v>270</v>
       </c>
       <c r="C13" t="s">
-        <v>1461</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>2268</v>
+        <v>171</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>2326</v>
+        <v>271</v>
       </c>
       <c r="C14" t="s">
-        <v>2366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>2269</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2327</v>
+        <v>272</v>
       </c>
       <c r="C15" t="s">
-        <v>2367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>2270</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>2271</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>2328</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>2368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>2272</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2329</v>
+        <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>2369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>2273</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>2274</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>2275</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>2330</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>2370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>2276</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>2331</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
-        <v>2371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>2277</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>2332</v>
+        <v>280</v>
       </c>
       <c r="C23" t="s">
-        <v>2372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>2278</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C24" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>2279</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>2333</v>
+        <v>282</v>
       </c>
       <c r="C25" t="s">
-        <v>2373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>2280</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C26" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>2281</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>2334</v>
+        <v>284</v>
       </c>
       <c r="C27" t="s">
-        <v>2374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>2282</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>2335</v>
+        <v>285</v>
       </c>
       <c r="C28" t="s">
-        <v>2375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>2283</v>
+        <v>186</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>2336</v>
+        <v>286</v>
       </c>
       <c r="C29" t="s">
-        <v>2376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>2284</v>
+        <v>187</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>2337</v>
+        <v>287</v>
       </c>
       <c r="C30" t="s">
-        <v>2377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>2285</v>
+        <v>188</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>2286</v>
+        <v>189</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>2338</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s">
-        <v>2378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>2287</v>
+        <v>190</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>2339</v>
+        <v>290</v>
       </c>
       <c r="C33" t="s">
-        <v>2379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>2288</v>
+        <v>191</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>2170</v>
+        <v>291</v>
       </c>
       <c r="C34" t="s">
-        <v>2200</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>2289</v>
+        <v>192</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>2290</v>
+        <v>193</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C36" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>2291</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>2340</v>
+        <v>294</v>
       </c>
       <c r="C37" t="s">
-        <v>2380</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>2292</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>2341</v>
+        <v>295</v>
       </c>
       <c r="C38" t="s">
-        <v>2381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>2293</v>
+        <v>196</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>2342</v>
+        <v>296</v>
       </c>
       <c r="C39" t="s">
-        <v>2382</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>2294</v>
+        <v>197</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C40" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>2295</v>
+        <v>198</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="C41" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>2296</v>
+        <v>199</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>2343</v>
+        <v>299</v>
       </c>
       <c r="C42" t="s">
-        <v>2383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>2297</v>
+        <v>200</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>2344</v>
+        <v>300</v>
       </c>
       <c r="C43" t="s">
-        <v>2384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>2298</v>
+        <v>201</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>2299</v>
+        <v>202</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="C45" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>2300</v>
+        <v>203</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>2345</v>
+        <v>303</v>
       </c>
       <c r="C46" t="s">
-        <v>2385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>2301</v>
+        <v>204</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>2175</v>
+        <v>304</v>
       </c>
       <c r="C47" t="s">
-        <v>2205</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>2302</v>
+        <v>205</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>2346</v>
+        <v>305</v>
       </c>
       <c r="C48" t="s">
-        <v>2386</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>2303</v>
+        <v>206</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>2177</v>
+        <v>306</v>
       </c>
       <c r="C49" t="s">
-        <v>2207</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>2304</v>
+        <v>207</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>2347</v>
+        <v>307</v>
       </c>
       <c r="C50" t="s">
-        <v>2387</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>2305</v>
+        <v>208</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="C51" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>2306</v>
+        <v>209</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2348</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
-        <v>2388</v>
+        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>2307</v>
+        <v>210</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>2349</v>
+        <v>310</v>
       </c>
       <c r="C53" t="s">
-        <v>2389</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>2308</v>
+        <v>211</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>2350</v>
+        <v>311</v>
       </c>
       <c r="C54" t="s">
-        <v>2390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>2309</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>2351</v>
+        <v>312</v>
       </c>
       <c r="C55" t="s">
-        <v>2391</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>2310</v>
+        <v>213</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>669</v>
+        <v>313</v>
       </c>
       <c r="C56" t="s">
-        <v>731</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>2311</v>
+        <v>214</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>2352</v>
+        <v>314</v>
       </c>
       <c r="C57" t="s">
-        <v>2392</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>2312</v>
+        <v>215</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2353</v>
+        <v>315</v>
       </c>
       <c r="C58" t="s">
-        <v>2393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>2313</v>
+        <v>216</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>2354</v>
+        <v>316</v>
       </c>
       <c r="C59" t="s">
-        <v>2394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>2314</v>
+        <v>217</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>2355</v>
+        <v>317</v>
       </c>
       <c r="C60" t="s">
-        <v>2395</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>2315</v>
+        <v>218</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>2356</v>
+        <v>318</v>
       </c>
       <c r="C61" t="s">
-        <v>2396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>2316</v>
+        <v>219</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>2357</v>
+        <v>319</v>
       </c>
       <c r="C62" t="s">
-        <v>2397</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>2317</v>
+        <v>220</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="C63" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>1795</v>
+        <v>221</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1879</v>
+        <v>321</v>
       </c>
       <c r="C64" t="s">
-        <v>1960</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>1796</v>
+        <v>222</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>1797</v>
+        <v>223</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1880</v>
+        <v>323</v>
       </c>
       <c r="C66" t="s">
-        <v>1961</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>1798</v>
+        <v>224</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1881</v>
+        <v>324</v>
       </c>
       <c r="C67" t="s">
-        <v>1962</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>1799</v>
+        <v>225</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1882</v>
+        <v>325</v>
       </c>
       <c r="C68" t="s">
-        <v>1963</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>1800</v>
+        <v>226</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1883</v>
+        <v>326</v>
       </c>
       <c r="C69" t="s">
-        <v>1964</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>1801</v>
+        <v>227</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1884</v>
+        <v>327</v>
       </c>
       <c r="C70" t="s">
-        <v>1965</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>1802</v>
+        <v>228</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1885</v>
+        <v>328</v>
       </c>
       <c r="C71" t="s">
-        <v>1966</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>1803</v>
+        <v>229</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1886</v>
+        <v>329</v>
       </c>
       <c r="C72" t="s">
-        <v>1967</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>1804</v>
+        <v>230</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1887</v>
+        <v>330</v>
       </c>
       <c r="C73" t="s">
-        <v>1968</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>1805</v>
+        <v>231</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1888</v>
+        <v>331</v>
       </c>
       <c r="C74" t="s">
-        <v>1969</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>1806</v>
+        <v>232</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1889</v>
+        <v>332</v>
       </c>
       <c r="C75" t="s">
-        <v>1970</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>1807</v>
+        <v>233</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1890</v>
+        <v>333</v>
       </c>
       <c r="C76" t="s">
-        <v>1971</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>1808</v>
+        <v>234</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1891</v>
+        <v>334</v>
       </c>
       <c r="C77" t="s">
-        <v>1972</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>1809</v>
+        <v>235</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1892</v>
+        <v>335</v>
       </c>
       <c r="C78" t="s">
-        <v>1973</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>1810</v>
+        <v>236</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1893</v>
+        <v>336</v>
       </c>
       <c r="C79" t="s">
-        <v>1974</v>
+        <v>436</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>1811</v>
+        <v>237</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C80" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>1812</v>
+        <v>238</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1894</v>
+        <v>338</v>
       </c>
       <c r="C81" t="s">
-        <v>1975</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>1813</v>
+        <v>239</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1895</v>
+        <v>339</v>
       </c>
       <c r="C82" t="s">
-        <v>1976</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>1814</v>
+        <v>240</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1896</v>
+        <v>340</v>
       </c>
       <c r="C83" t="s">
-        <v>1977</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>1815</v>
+        <v>241</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1897</v>
+        <v>341</v>
       </c>
       <c r="C84" t="s">
-        <v>1978</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>1816</v>
+        <v>242</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1898</v>
+        <v>342</v>
       </c>
       <c r="C85" t="s">
-        <v>1979</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>1817</v>
+        <v>243</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1899</v>
+        <v>343</v>
       </c>
       <c r="C86" t="s">
-        <v>1980</v>
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>1818</v>
+        <v>244</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1900</v>
+        <v>344</v>
       </c>
       <c r="C87" t="s">
-        <v>1981</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>1819</v>
+        <v>245</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1901</v>
+        <v>345</v>
       </c>
       <c r="C88" t="s">
-        <v>1982</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>1820</v>
+        <v>246</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1902</v>
+        <v>346</v>
       </c>
       <c r="C89" t="s">
-        <v>1983</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>1821</v>
+        <v>247</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1903</v>
+        <v>347</v>
       </c>
       <c r="C90" t="s">
-        <v>1984</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>1822</v>
+        <v>248</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1260</v>
+        <v>348</v>
       </c>
       <c r="C91" t="s">
-        <v>1324</v>
+        <v>448</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>1196</v>
+        <v>249</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1260</v>
+        <v>349</v>
       </c>
       <c r="C92" t="s">
-        <v>1324</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>1197</v>
+        <v>250</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1261</v>
+        <v>350</v>
       </c>
       <c r="C93" t="s">
-        <v>1325</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>1198</v>
+        <v>251</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1262</v>
+        <v>351</v>
       </c>
       <c r="C94" t="s">
-        <v>1326</v>
+        <v>451</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>1199</v>
+        <v>252</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1263</v>
+        <v>352</v>
       </c>
       <c r="C95" t="s">
-        <v>1327</v>
+        <v>452</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -11487,4 +15867,3454 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C10" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>543</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C18" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>546</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C19" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C20" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>548</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C21" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>549</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C22" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>550</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C23" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>551</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C24" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>552</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>553</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C27" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>555</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>556</v>
+      </c>
+      <c r="B29" t="s">
+        <v>639</v>
+      </c>
+      <c r="C29" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>557</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C30" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>558</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C31" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>559</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C32" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>560</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>561</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>562</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C35" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>563</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C36" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>564</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C37" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>565</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C38" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>566</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C39" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>567</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C40" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>568</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C41" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>569</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C42" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>570</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>571</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>572</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>573</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C46" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>574</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C47" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>575</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C48" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>576</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>577</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>578</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="C51" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>579</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>580</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C53" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>581</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C54" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>582</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C55" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>583</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>584</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C57" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>585</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C58" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>586</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C59" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>587</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>588</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>589</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C62" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>590</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>591</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C64" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>592</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C65" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>593</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C66" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>594</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C67" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>595</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>596</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C69" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>597</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C70" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>598</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>599</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C72" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>600</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C73" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>601</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C74" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>602</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C75" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>603</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C76" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>604</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C77" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>605</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C78" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>606</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C79" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>607</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C80" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>608</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C81" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>609</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C82" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>610</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C83" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>611</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C84" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>612</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C85" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>613</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C86" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>614</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C87" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>615</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C88" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>616</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C89" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>617</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C90" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+    <hyperlink ref="B54" r:id="rId52"/>
+    <hyperlink ref="B55" r:id="rId53"/>
+    <hyperlink ref="B56" r:id="rId54"/>
+    <hyperlink ref="B57" r:id="rId55"/>
+    <hyperlink ref="B58" r:id="rId56"/>
+    <hyperlink ref="B59" r:id="rId57"/>
+    <hyperlink ref="B60" r:id="rId58"/>
+    <hyperlink ref="B61" r:id="rId59"/>
+    <hyperlink ref="B62" r:id="rId60"/>
+    <hyperlink ref="B63" r:id="rId61"/>
+    <hyperlink ref="B64" r:id="rId62"/>
+    <hyperlink ref="B65" r:id="rId63"/>
+    <hyperlink ref="B66" r:id="rId64"/>
+    <hyperlink ref="B67" r:id="rId65"/>
+    <hyperlink ref="B68" r:id="rId66"/>
+    <hyperlink ref="B69" r:id="rId67"/>
+    <hyperlink ref="B70" r:id="rId68"/>
+    <hyperlink ref="B71" r:id="rId69"/>
+    <hyperlink ref="B72" r:id="rId70"/>
+    <hyperlink ref="B73" r:id="rId71"/>
+    <hyperlink ref="B74" r:id="rId72"/>
+    <hyperlink ref="B75" r:id="rId73"/>
+    <hyperlink ref="B76" r:id="rId74"/>
+    <hyperlink ref="B77" r:id="rId75"/>
+    <hyperlink ref="B78" r:id="rId76"/>
+    <hyperlink ref="B79" r:id="rId77"/>
+    <hyperlink ref="B80" r:id="rId78"/>
+    <hyperlink ref="B81" r:id="rId79"/>
+    <hyperlink ref="B82" r:id="rId80"/>
+    <hyperlink ref="B83" r:id="rId81"/>
+    <hyperlink ref="B84" r:id="rId82"/>
+    <hyperlink ref="B85" r:id="rId83"/>
+    <hyperlink ref="B86" r:id="rId84"/>
+    <hyperlink ref="B87" r:id="rId85"/>
+    <hyperlink ref="B88" r:id="rId86"/>
+    <hyperlink ref="B89" r:id="rId87"/>
+    <hyperlink ref="B90" r:id="rId88"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>807</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C8" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>811</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>812</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>813</v>
+      </c>
+      <c r="B11" t="s">
+        <v>639</v>
+      </c>
+      <c r="C11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>814</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>815</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>816</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C14" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>817</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>818</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>820</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>821</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>822</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C20" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>823</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>824</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C22" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>826</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>827</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>828</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C26" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>829</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>830</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C28" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>831</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>832</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>833</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C31" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>834</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>835</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>836</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C34" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>837</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C35" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>838</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>839</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C37" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>840</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C38" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>841</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C39" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>842</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C40" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>843</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>844</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C42" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>845</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>846</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>847</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>848</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C46" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>849</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C47" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>850</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C48" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>851</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C49" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>852</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C50" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>853</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C51" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>854</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C52" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>855</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="B26" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="B30" r:id="rId28"/>
+    <hyperlink ref="B31" r:id="rId29"/>
+    <hyperlink ref="B32" r:id="rId30"/>
+    <hyperlink ref="B33" r:id="rId31"/>
+    <hyperlink ref="B34" r:id="rId32"/>
+    <hyperlink ref="B35" r:id="rId33"/>
+    <hyperlink ref="B36" r:id="rId34"/>
+    <hyperlink ref="B37" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="B42" r:id="rId40"/>
+    <hyperlink ref="B43" r:id="rId41"/>
+    <hyperlink ref="B44" r:id="rId42"/>
+    <hyperlink ref="B45" r:id="rId43"/>
+    <hyperlink ref="B46" r:id="rId44"/>
+    <hyperlink ref="B47" r:id="rId45"/>
+    <hyperlink ref="B48" r:id="rId46"/>
+    <hyperlink ref="B49" r:id="rId47"/>
+    <hyperlink ref="B50" r:id="rId48"/>
+    <hyperlink ref="B51" r:id="rId49"/>
+    <hyperlink ref="B52" r:id="rId50"/>
+    <hyperlink ref="B53" r:id="rId51"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>918</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>919</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C5" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>922</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C8" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>923</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>925</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C11" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>926</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C12" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C13" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>928</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C14" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>929</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>930</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C16" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>931</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>932</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>933</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>934</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>935</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C21" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>936</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C22" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>937</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>938</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C24" t="s">
+        <v>958</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B24" r:id="rId22"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>983</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>985</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>920</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="C6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>988</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>989</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C9" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>990</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>991</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>992</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>994</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>995</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>996</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>997</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>998</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>999</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B19" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C27" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C66" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C70" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C80" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C81" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C83" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C86" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C87" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C91" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
+    <hyperlink ref="B79" r:id="rId78"/>
+    <hyperlink ref="B80" r:id="rId79"/>
+    <hyperlink ref="B81" r:id="rId80"/>
+    <hyperlink ref="B82" r:id="rId81"/>
+    <hyperlink ref="B83" r:id="rId82"/>
+    <hyperlink ref="B84" r:id="rId83"/>
+    <hyperlink ref="B85" r:id="rId84"/>
+    <hyperlink ref="B86" r:id="rId85"/>
+    <hyperlink ref="B87" r:id="rId86"/>
+    <hyperlink ref="B88" r:id="rId87"/>
+    <hyperlink ref="B89" r:id="rId88"/>
+    <hyperlink ref="B90" r:id="rId89"/>
+    <hyperlink ref="B91" r:id="rId90"/>
+    <hyperlink ref="B92" r:id="rId91"/>
+    <hyperlink ref="B93" r:id="rId92"/>
+    <hyperlink ref="B94" r:id="rId93"/>
+    <hyperlink ref="B95" r:id="rId94"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>